--- a/form/static/健康監測手開帳單v1.0.xlsx
+++ b/form/static/健康監測手開帳單v1.0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\ntumclab\venv\userform\form\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D8A5CE-1D83-43A4-BFE8-2F146E0E69FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DD1FD8-CF6C-4BF5-8C80-D25E9249C636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="540" windowWidth="19575" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1 '!$A$1:$H$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1 '!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>國立台灣大學醫學院實驗動物中心委託檢驗費用明細表</t>
   </si>
@@ -194,6 +194,14 @@
 動物解剖及疾病診斷、病理切片判讀及拍照、切片掃描問題請洽:蔡伊婷小姐  02-23123456轉288546
 帳務相關問題請洽:蕭秋萍小姐 02-23123456轉288161</t>
     </r>
+  </si>
+  <si>
+    <t>2. 大鼠檢疫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3020元/隻</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -333,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -394,6 +402,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,7 +448,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -456,13 +475,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>971640</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>816120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>462240</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1959840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -798,10 +817,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW34"/>
+  <dimension ref="A1:IW35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -819,19 +838,19 @@
     <col min="1026" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="25.5">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:257" s="1" customFormat="1" ht="25.5">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:257" s="1" customFormat="1" ht="25.5">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -839,315 +858,583 @@
       <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1">
+    <row r="3" spans="1:257" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:257">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:257">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:257">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:257">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:257">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="19.5">
+    <row r="9" spans="1:257" ht="19.5">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:257">
+      <c r="A10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="29" t="s">
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:257">
+      <c r="A11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="30">
+      <c r="F11" s="33">
         <f>4650*E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25">
-      <c r="A13" s="24" t="s">
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:257">
+      <c r="A12" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="33">
+        <f>4650*E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="21"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21"/>
+      <c r="BC12" s="21"/>
+      <c r="BD12" s="21"/>
+      <c r="BE12" s="21"/>
+      <c r="BF12" s="21"/>
+      <c r="BG12" s="21"/>
+      <c r="BH12" s="21"/>
+      <c r="BI12" s="21"/>
+      <c r="BJ12" s="21"/>
+      <c r="BK12" s="21"/>
+      <c r="BL12" s="21"/>
+      <c r="BM12" s="21"/>
+      <c r="BN12" s="21"/>
+      <c r="BO12" s="21"/>
+      <c r="BP12" s="21"/>
+      <c r="BQ12" s="21"/>
+      <c r="BR12" s="21"/>
+      <c r="BS12" s="21"/>
+      <c r="BT12" s="21"/>
+      <c r="BU12" s="21"/>
+      <c r="BV12" s="21"/>
+      <c r="BW12" s="21"/>
+      <c r="BX12" s="21"/>
+      <c r="BY12" s="21"/>
+      <c r="BZ12" s="21"/>
+      <c r="CA12" s="21"/>
+      <c r="CB12" s="21"/>
+      <c r="CC12" s="21"/>
+      <c r="CD12" s="21"/>
+      <c r="CE12" s="21"/>
+      <c r="CF12" s="21"/>
+      <c r="CG12" s="21"/>
+      <c r="CH12" s="21"/>
+      <c r="CI12" s="21"/>
+      <c r="CJ12" s="21"/>
+      <c r="CK12" s="21"/>
+      <c r="CL12" s="21"/>
+      <c r="CM12" s="21"/>
+      <c r="CN12" s="21"/>
+      <c r="CO12" s="21"/>
+      <c r="CP12" s="21"/>
+      <c r="CQ12" s="21"/>
+      <c r="CR12" s="21"/>
+      <c r="CS12" s="21"/>
+      <c r="CT12" s="21"/>
+      <c r="CU12" s="21"/>
+      <c r="CV12" s="21"/>
+      <c r="CW12" s="21"/>
+      <c r="CX12" s="21"/>
+      <c r="CY12" s="21"/>
+      <c r="CZ12" s="21"/>
+      <c r="DA12" s="21"/>
+      <c r="DB12" s="21"/>
+      <c r="DC12" s="21"/>
+      <c r="DD12" s="21"/>
+      <c r="DE12" s="21"/>
+      <c r="DF12" s="21"/>
+      <c r="DG12" s="21"/>
+      <c r="DH12" s="21"/>
+      <c r="DI12" s="21"/>
+      <c r="DJ12" s="21"/>
+      <c r="DK12" s="21"/>
+      <c r="DL12" s="21"/>
+      <c r="DM12" s="21"/>
+      <c r="DN12" s="21"/>
+      <c r="DO12" s="21"/>
+      <c r="DP12" s="21"/>
+      <c r="DQ12" s="21"/>
+      <c r="DR12" s="21"/>
+      <c r="DS12" s="21"/>
+      <c r="DT12" s="21"/>
+      <c r="DU12" s="21"/>
+      <c r="DV12" s="21"/>
+      <c r="DW12" s="21"/>
+      <c r="DX12" s="21"/>
+      <c r="DY12" s="21"/>
+      <c r="DZ12" s="21"/>
+      <c r="EA12" s="21"/>
+      <c r="EB12" s="21"/>
+      <c r="EC12" s="21"/>
+      <c r="ED12" s="21"/>
+      <c r="EE12" s="21"/>
+      <c r="EF12" s="21"/>
+      <c r="EG12" s="21"/>
+      <c r="EH12" s="21"/>
+      <c r="EI12" s="21"/>
+      <c r="EJ12" s="21"/>
+      <c r="EK12" s="21"/>
+      <c r="EL12" s="21"/>
+      <c r="EM12" s="21"/>
+      <c r="EN12" s="21"/>
+      <c r="EO12" s="21"/>
+      <c r="EP12" s="21"/>
+      <c r="EQ12" s="21"/>
+      <c r="ER12" s="21"/>
+      <c r="ES12" s="21"/>
+      <c r="ET12" s="21"/>
+      <c r="EU12" s="21"/>
+      <c r="EV12" s="21"/>
+      <c r="EW12" s="21"/>
+      <c r="EX12" s="21"/>
+      <c r="EY12" s="21"/>
+      <c r="EZ12" s="21"/>
+      <c r="FA12" s="21"/>
+      <c r="FB12" s="21"/>
+      <c r="FC12" s="21"/>
+      <c r="FD12" s="21"/>
+      <c r="FE12" s="21"/>
+      <c r="FF12" s="21"/>
+      <c r="FG12" s="21"/>
+      <c r="FH12" s="21"/>
+      <c r="FI12" s="21"/>
+      <c r="FJ12" s="21"/>
+      <c r="FK12" s="21"/>
+      <c r="FL12" s="21"/>
+      <c r="FM12" s="21"/>
+      <c r="FN12" s="21"/>
+      <c r="FO12" s="21"/>
+      <c r="FP12" s="21"/>
+      <c r="FQ12" s="21"/>
+      <c r="FR12" s="21"/>
+      <c r="FS12" s="21"/>
+      <c r="FT12" s="21"/>
+      <c r="FU12" s="21"/>
+      <c r="FV12" s="21"/>
+      <c r="FW12" s="21"/>
+      <c r="FX12" s="21"/>
+      <c r="FY12" s="21"/>
+      <c r="FZ12" s="21"/>
+      <c r="GA12" s="21"/>
+      <c r="GB12" s="21"/>
+      <c r="GC12" s="21"/>
+      <c r="GD12" s="21"/>
+      <c r="GE12" s="21"/>
+      <c r="GF12" s="21"/>
+      <c r="GG12" s="21"/>
+      <c r="GH12" s="21"/>
+      <c r="GI12" s="21"/>
+      <c r="GJ12" s="21"/>
+      <c r="GK12" s="21"/>
+      <c r="GL12" s="21"/>
+      <c r="GM12" s="21"/>
+      <c r="GN12" s="21"/>
+      <c r="GO12" s="21"/>
+      <c r="GP12" s="21"/>
+      <c r="GQ12" s="21"/>
+      <c r="GR12" s="21"/>
+      <c r="GS12" s="21"/>
+      <c r="GT12" s="21"/>
+      <c r="GU12" s="21"/>
+      <c r="GV12" s="21"/>
+      <c r="GW12" s="21"/>
+      <c r="GX12" s="21"/>
+      <c r="GY12" s="21"/>
+      <c r="GZ12" s="21"/>
+      <c r="HA12" s="21"/>
+      <c r="HB12" s="21"/>
+      <c r="HC12" s="21"/>
+      <c r="HD12" s="21"/>
+      <c r="HE12" s="21"/>
+      <c r="HF12" s="21"/>
+      <c r="HG12" s="21"/>
+      <c r="HH12" s="21"/>
+      <c r="HI12" s="21"/>
+      <c r="HJ12" s="21"/>
+      <c r="HK12" s="21"/>
+      <c r="HL12" s="21"/>
+      <c r="HM12" s="21"/>
+      <c r="HN12" s="21"/>
+      <c r="HO12" s="21"/>
+      <c r="HP12" s="21"/>
+      <c r="HQ12" s="21"/>
+      <c r="HR12" s="21"/>
+      <c r="HS12" s="21"/>
+      <c r="HT12" s="21"/>
+      <c r="HU12" s="21"/>
+      <c r="HV12" s="21"/>
+      <c r="HW12" s="21"/>
+      <c r="HX12" s="21"/>
+      <c r="HY12" s="21"/>
+      <c r="HZ12" s="21"/>
+      <c r="IA12" s="21"/>
+      <c r="IB12" s="21"/>
+      <c r="IC12" s="21"/>
+      <c r="ID12" s="21"/>
+      <c r="IE12" s="21"/>
+      <c r="IF12" s="21"/>
+      <c r="IG12" s="21"/>
+      <c r="IH12" s="21"/>
+      <c r="II12" s="21"/>
+      <c r="IJ12" s="21"/>
+      <c r="IK12" s="21"/>
+      <c r="IL12" s="21"/>
+      <c r="IM12" s="21"/>
+      <c r="IN12" s="21"/>
+      <c r="IO12" s="21"/>
+      <c r="IP12" s="21"/>
+      <c r="IQ12" s="21"/>
+      <c r="IR12" s="21"/>
+      <c r="IS12" s="21"/>
+      <c r="IT12" s="21"/>
+      <c r="IU12" s="21"/>
+      <c r="IV12" s="21"/>
+      <c r="IW12" s="21"/>
+    </row>
+    <row r="13" spans="1:257">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:257" ht="20.25">
+      <c r="A14" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="8">
-        <f>SUM(F11:G11)</f>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="8">
+        <f>SUM(F11:G12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:257" ht="20.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:8" ht="25.7" customHeight="1">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:257" ht="20.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" ht="25.7" customHeight="1">
+      <c r="A17" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A18" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:7" ht="161.25" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" ht="161.25" customHeight="1">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="A17:G34"/>
+  <mergeCells count="15">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="A18:G35"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B4:E4"/>
@@ -1158,7 +1445,7 @@
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74861111111111101" header="0.51180555555555496" footer="0.31527777777777799"/>
   <pageSetup paperSize="9" scale="91" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;"標楷體,Regular"&amp;10版次: 1.0&amp;C&amp;"標楷體,Regular"&amp;10修訂日期：2023.05.03</oddFooter>
+    <oddFooter>&amp;L&amp;"標楷體,標準"&amp;10版次: 2.0&amp;C&amp;"標楷體,標準"&amp;10修訂日期：2023.05.31</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
